--- a/ISRaD_data_files/Milton_1998.xlsx
+++ b/ISRaD_data_files/Milton_1998.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE737F-F6C2-4362-B962-4BCFD6561788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22960" windowHeight="13280" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="959">
   <si>
     <t>entry_name</t>
   </si>
@@ -2900,12 +2906,18 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Spodosols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3007,7 +3019,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3019,15 +3031,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_layer" xfId="3"/>
+    <cellStyle name="Normal_layer" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3309,14 +3332,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +3438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3451,7 +3476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3485,7 +3510,7 @@
       <c r="K4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
@@ -3504,14 +3529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3557,7 +3582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3574,7 +3599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3588,7 +3613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3614,14 +3639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3662,76 +3689,79 @@
         <v>86</v>
       </c>
       <c r="N1" t="s">
+        <v>957</v>
+      </c>
+      <c r="O1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>91</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>93</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>94</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>95</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>101</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>103</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>104</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>105</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>106</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3771,77 +3801,77 @@
       <c r="M2" t="s">
         <v>118</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>119</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>120</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>122</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>123</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>124</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>125</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>126</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>127</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>128</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>130</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>132</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>133</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>134</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>135</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>136</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>137</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>138</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>139</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>140</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3869,29 +3899,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>147</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>149</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>146</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>150</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>151</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>152</v>
-      </c>
-      <c r="V3" t="s">
-        <v>153</v>
       </c>
       <c r="W3" t="s">
         <v>153</v>
@@ -3900,43 +3927,46 @@
         <v>153</v>
       </c>
       <c r="Y3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z3" t="s">
         <v>154</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>155</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>156</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>157</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>158</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>159</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>150</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>160</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>161</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>162</v>
       </c>
       <c r="AI3" t="s">
         <v>162</v>
       </c>
       <c r="AJ3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3949,17 +3979,17 @@
       <c r="H4" t="s">
         <v>164</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>165</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>166</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3972,17 +4002,20 @@
       <c r="H5" t="s">
         <v>164</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q5" t="s">
         <v>165</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>169</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -3995,13 +4028,13 @@
       <c r="H6" t="s">
         <v>164</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>165</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>166</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4017,14 +4050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +4170,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4247,7 +4280,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4339,16 +4372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT28"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AZ4" sqref="AZ4:AZ28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4644,7 +4677,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4940,7 +4973,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5179,7 +5212,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5212,7 +5245,7 @@
         <v>1.236</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5245,7 +5278,7 @@
         <v>1.155</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5278,7 +5311,7 @@
         <v>1.121</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5311,7 +5344,7 @@
         <v>1.1040000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5344,7 +5377,7 @@
         <v>1.0859999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5377,7 +5410,7 @@
         <v>1.0759999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5410,7 +5443,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5440,7 +5473,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -5473,7 +5506,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5506,7 +5539,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5539,7 +5572,7 @@
         <v>0.97900000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5572,7 +5605,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5599,7 +5632,7 @@
         <v>0.97400000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5632,7 +5665,7 @@
         <v>0.94900000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5665,7 +5698,7 @@
         <v>0.91599999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5698,7 +5731,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5731,7 +5764,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5764,7 +5797,7 @@
         <v>0.86900000000000011</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5797,7 +5830,7 @@
         <v>0.8640000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -5830,7 +5863,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -5860,7 +5893,7 @@
         <v>0.82700000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -5890,7 +5923,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -5923,7 +5956,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5956,7 +5989,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -6001,14 +6034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6094,7 +6127,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6177,7 +6210,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6236,16 +6269,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6466,7 +6499,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6684,7 +6717,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6863,14 +6896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6962,7 +6995,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7045,7 +7078,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7104,14 +7137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>714</v>
       </c>
@@ -7245,7 +7278,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7379,7 +7412,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>760</v>
       </c>
@@ -7402,7 +7435,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>765</v>
       </c>
@@ -7536,7 +7569,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>798</v>
       </c>
@@ -7649,7 +7682,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>830</v>
       </c>
@@ -7750,7 +7783,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>856</v>
       </c>
@@ -7824,7 +7857,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>877</v>
       </c>
@@ -7892,7 +7925,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>894</v>
       </c>
@@ -7945,7 +7978,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>910</v>
       </c>
@@ -7977,7 +8010,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>920</v>
       </c>
@@ -8003,7 +8036,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>927</v>
       </c>
@@ -8020,7 +8053,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U13" t="s">
         <v>932</v>
       </c>
@@ -8034,7 +8067,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>936</v>
       </c>
@@ -8045,7 +8078,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U15" t="s">
         <v>939</v>
       </c>
@@ -8056,7 +8089,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>942</v>
       </c>
@@ -8067,7 +8100,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN17" t="s">
         <v>945</v>
       </c>
@@ -8075,7 +8108,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN18" t="s">
         <v>947</v>
       </c>
@@ -8083,7 +8116,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN19" t="s">
         <v>949</v>
       </c>
@@ -8091,7 +8124,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN20" t="s">
         <v>951</v>
       </c>
@@ -8099,7 +8132,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN21" t="s">
         <v>953</v>
       </c>
